--- a/HCPStateLevelData.xlsx
+++ b/HCPStateLevelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
   <si>
     <t>State</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Population Density</t>
+  </si>
+  <si>
+    <t>Bone Marrow Medical Centers by State</t>
   </si>
   <si>
     <t>Alabama,AL</t>
@@ -866,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,13 +939,16 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>68</v>
@@ -975,10 +981,10 @@
         <v>4.338617810951412e-05</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -1004,13 +1010,16 @@
       <c r="V2">
         <v>92.77553425624956</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1043,10 +1052,10 @@
         <v>3.908914211464171e-05</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O3">
         <v>7.8</v>
@@ -1072,13 +1081,16 @@
       <c r="V3">
         <v>1.114986166485147</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>114</v>
@@ -1111,10 +1123,10 @@
         <v>4.169629772945624e-05</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O4">
         <v>9.1</v>
@@ -1140,13 +1152,16 @@
       <c r="V4">
         <v>60.80404209831889</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -1179,10 +1194,10 @@
         <v>4.196349244949505e-05</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O5">
         <v>11.2</v>
@@ -1208,13 +1223,16 @@
       <c r="V5">
         <v>54.67033230503652</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>817</v>
@@ -1247,10 +1265,10 @@
         <v>6.234392204212293e-05</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O6">
         <v>9.6</v>
@@ -1276,13 +1294,16 @@
       <c r="V6">
         <v>239.7756763595458</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>102</v>
@@ -1315,10 +1336,10 @@
         <v>4.909264341323823e-05</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O7">
         <v>6.4</v>
@@ -1344,13 +1365,16 @@
       <c r="V7">
         <v>53.22653144999115</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>149</v>
@@ -1383,10 +1407,10 @@
         <v>6.906285894512215e-05</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8">
         <v>8.1</v>
@@ -1412,13 +1436,16 @@
       <c r="V8">
         <v>645.1718346649445</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1451,10 +1478,10 @@
         <v>5.041672574876715e-05</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9">
         <v>9.9</v>
@@ -1480,13 +1507,16 @@
       <c r="V9">
         <v>382.5520749622296</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -1519,10 +1549,10 @@
         <v>0.0001585507288929342</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10">
         <v>9.300000000000001</v>
@@ -1548,13 +1578,16 @@
       <c r="V10">
         <v>9967.369037167105</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>441</v>
@@ -1587,10 +1620,10 @@
         <v>6.335979939103762e-05</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O11">
         <v>9.300000000000001</v>
@@ -1616,13 +1649,16 @@
       <c r="V11">
         <v>313.4604616645655</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>149</v>
@@ -1655,10 +1691,10 @@
         <v>4.510021996298678e-05</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O12">
         <v>10.7</v>
@@ -1684,13 +1720,16 @@
       <c r="V12">
         <v>173.5018085776813</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1723,10 +1762,10 @@
         <v>8.12008201282833e-05</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13">
         <v>7.8</v>
@@ -1752,13 +1791,16 @@
       <c r="V13">
         <v>130.6799844855155</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1791,10 +1833,10 @@
         <v>3.624178618534406e-05</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14">
         <v>7.3</v>
@@ -1820,13 +1862,16 @@
       <c r="V14">
         <v>20.14073408843835</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>309</v>
@@ -1859,10 +1904,10 @@
         <v>5.835235904058098e-05</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O15">
         <v>9.1</v>
@@ -1888,13 +1933,16 @@
       <c r="V15">
         <v>221.0456620255536</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>125</v>
@@ -1927,10 +1975,10 @@
         <v>4.160979868546203e-05</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16">
         <v>10.5</v>
@@ -1956,13 +2004,16 @@
       <c r="V16">
         <v>182.128911532405</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>37</v>
@@ -1995,10 +2046,10 @@
         <v>4.721355488400299e-05</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O17">
         <v>7.7</v>
@@ -2024,13 +2075,16 @@
       <c r="V17">
         <v>55.70528644295531</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>42</v>
@@ -2063,10 +2117,10 @@
         <v>4.368330771381861e-05</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O18">
         <v>8.9</v>
@@ -2092,13 +2146,16 @@
       <c r="V18">
         <v>35.33479520009879</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -2131,10 +2188,10 @@
         <v>4.304735614858234e-05</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O19">
         <v>12.1</v>
@@ -2160,13 +2217,16 @@
       <c r="V19">
         <v>109.8048891550641</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>89</v>
@@ -2199,10 +2259,10 @@
         <v>6.813813715032212e-05</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O20">
         <v>11.8</v>
@@ -2228,13 +2288,16 @@
       <c r="V20">
         <v>89.38207606877145</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2267,10 +2330,10 @@
         <v>5.18220715460026e-05</v>
       </c>
       <c r="M21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O21">
         <v>8.199999999999999</v>
@@ -2296,13 +2359,16 @@
       <c r="V21">
         <v>37.63393965020659</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>271</v>
@@ -2335,10 +2401,10 @@
         <v>9.058502468317265e-05</v>
       </c>
       <c r="M22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O22">
         <v>9.4</v>
@@ -2364,13 +2430,16 @@
       <c r="V22">
         <v>484.9654157326376</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>397</v>
@@ -2403,10 +2472,10 @@
         <v>8.881673935692864e-05</v>
       </c>
       <c r="M23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O23">
         <v>8</v>
@@ -2432,13 +2501,16 @@
       <c r="V23">
         <v>645.3976970720241</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>190</v>
@@ -2471,10 +2543,10 @@
         <v>6.053402898784283e-05</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O24">
         <v>9.5</v>
@@ -2500,13 +2572,16 @@
       <c r="V24">
         <v>102.6568056520749</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>141</v>
@@ -2539,10 +2614,10 @@
         <v>5.199320573802091e-05</v>
       </c>
       <c r="M25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O25">
         <v>6.9</v>
@@ -2568,13 +2643,16 @@
       <c r="V25">
         <v>63.49455684727459</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>39</v>
@@ -2607,10 +2685,10 @@
         <v>2.844021164870918e-05</v>
       </c>
       <c r="M26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O26">
         <v>13.6</v>
@@ -2636,13 +2714,16 @@
       <c r="V26">
         <v>61.71001767847476</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>144</v>
@@ -2675,10 +2756,10 @@
         <v>5.137042507795831e-05</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O27">
         <v>10.2</v>
@@ -2704,13 +2785,16 @@
       <c r="V27">
         <v>87.40873763162058</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -2743,10 +2827,10 @@
         <v>5.083835322104132e-05</v>
       </c>
       <c r="M28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O28">
         <v>6.7</v>
@@ -2772,13 +2856,16 @@
       <c r="V28">
         <v>7.090057508954554</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>34</v>
@@ -2811,10 +2898,10 @@
         <v>5.138649143523519e-05</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O29">
         <v>8</v>
@@ -2840,13 +2927,16 @@
       <c r="V29">
         <v>24.65636712920508</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>43</v>
@@ -2879,10 +2969,10 @@
         <v>3.979513329328877e-05</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O30">
         <v>9</v>
@@ -2908,13 +2998,16 @@
       <c r="V30">
         <v>26.5895777061461</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>21</v>
@@ -2947,10 +3040,10 @@
         <v>5.094415247285164e-05</v>
       </c>
       <c r="M31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O31">
         <v>6.8</v>
@@ -2976,13 +3069,16 @@
       <c r="V31">
         <v>142.7716500733756</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>284</v>
@@ -3015,10 +3111,10 @@
         <v>6.573894995890757e-05</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O32">
         <v>7.9</v>
@@ -3044,13 +3140,16 @@
       <c r="V32">
         <v>1025.43845972178</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -3083,10 +3182,10 @@
         <v>3.988438334178273e-05</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O33">
         <v>10.5</v>
@@ -3112,13 +3211,16 @@
       <c r="V33">
         <v>17.11497545445648</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>713</v>
@@ -3151,10 +3253,10 @@
         <v>8.564068117716585e-05</v>
       </c>
       <c r="M34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O34">
         <v>8.9</v>
@@ -3180,13 +3282,16 @@
       <c r="V34">
         <v>361.9337593011674</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>217</v>
@@ -3219,10 +3324,10 @@
         <v>5.223327815659497e-05</v>
       </c>
       <c r="M35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O35">
         <v>9.6</v>
@@ -3248,13 +3353,16 @@
       <c r="V35">
         <v>188.5348637920027</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -3287,10 +3395,10 @@
         <v>4.221903233977877e-05</v>
       </c>
       <c r="M36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O36">
         <v>8.1</v>
@@ -3316,13 +3424,16 @@
       <c r="V36">
         <v>10.72093367989508</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>258</v>
@@ -3355,10 +3466,10 @@
         <v>5.768714333524505e-05</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O37">
         <v>9.5</v>
@@ -3384,13 +3495,16 @@
       <c r="V37">
         <v>259.1014550174253</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>51</v>
@@ -3423,10 +3537,10 @@
         <v>4.001467034665703e-05</v>
       </c>
       <c r="M38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O38">
         <v>10.7</v>
@@ -3452,13 +3566,16 @@
       <c r="V38">
         <v>56.13196608185512</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>87</v>
@@ -3491,10 +3608,10 @@
         <v>6.547020678080795e-05</v>
       </c>
       <c r="M39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O39">
         <v>9.6</v>
@@ -3520,13 +3637,16 @@
       <c r="V39">
         <v>41.60932861983925</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>362</v>
@@ -3559,10 +3679,10 @@
         <v>6.640995971050889e-05</v>
       </c>
       <c r="M40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O40">
         <v>8.800000000000001</v>
@@ -3588,13 +3708,16 @@
       <c r="V40">
         <v>277.5900599161773</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>37</v>
@@ -3627,10 +3750,10 @@
         <v>6.531456060339295e-05</v>
       </c>
       <c r="M41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O41">
         <v>7.9</v>
@@ -3656,13 +3779,16 @@
       <c r="V41">
         <v>683.8195599686709</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>77</v>
@@ -3695,10 +3821,10 @@
         <v>4.857775030189762e-05</v>
       </c>
       <c r="M42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O42">
         <v>10.5</v>
@@ -3724,13 +3850,16 @@
       <c r="V42">
         <v>154.9357614452496</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -3763,10 +3892,10 @@
         <v>4.159666487184761e-05</v>
       </c>
       <c r="M43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O43">
         <v>8.4</v>
@@ -3792,13 +3921,16 @@
       <c r="V43">
         <v>11.22280189969148</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>125</v>
@@ -3831,10 +3963,10 @@
         <v>5.02165475852907e-05</v>
       </c>
       <c r="M44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O44">
         <v>11.4</v>
@@ -3860,13 +3992,16 @@
       <c r="V44">
         <v>157.8197262971817</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>463</v>
@@ -3899,10 +4034,10 @@
         <v>4.497068399513097e-05</v>
       </c>
       <c r="M45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O45">
         <v>11.2</v>
@@ -3928,13 +4063,16 @@
       <c r="V45">
         <v>103.7340402773737</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>31</v>
@@ -3967,10 +4105,10 @@
         <v>5.374904505317059e-05</v>
       </c>
       <c r="M46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O46">
         <v>7.5</v>
@@ -3996,13 +4134,16 @@
       <c r="V46">
         <v>35.94027248115596</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -4035,10 +4176,10 @@
         <v>5.603640124624956e-05</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O47">
         <v>7.1</v>
@@ -4064,13 +4205,16 @@
       <c r="V47">
         <v>64.95118735155505</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <v>196</v>
@@ -4103,10 +4247,10 @@
         <v>5.492279424352053e-05</v>
       </c>
       <c r="M48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O48">
         <v>9.6</v>
@@ -4132,13 +4276,16 @@
       <c r="V48">
         <v>196.6527589875658</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>130</v>
@@ -4171,10 +4318,10 @@
         <v>5.104281009879254e-05</v>
       </c>
       <c r="M49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O49">
         <v>7.7</v>
@@ -4200,13 +4347,16 @@
       <c r="V49">
         <v>102.2189277531822</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50">
         <v>45</v>
@@ -4239,10 +4389,10 @@
         <v>5.297356455293042e-05</v>
       </c>
       <c r="M50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O50">
         <v>12.5</v>
@@ -4268,13 +4418,16 @@
       <c r="V50">
         <v>75.57156323307761</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>120</v>
@@ -4307,10 +4460,10 @@
         <v>5.520265083475407e-05</v>
       </c>
       <c r="M51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O51">
         <v>7.4</v>
@@ -4336,13 +4489,16 @@
       <c r="V51">
         <v>88.22942580948749</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -4375,10 +4531,10 @@
         <v>2.220320716787845e-05</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52">
         <v>7.6</v>
@@ -4403,6 +4559,9 @@
       </c>
       <c r="V52">
         <v>5.985921504715988</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HCPStateLevelData.xlsx
+++ b/HCPStateLevelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="169">
   <si>
     <t>State</t>
   </si>
@@ -82,6 +82,12 @@
     <t>Bone Marrow Medical Centers by State</t>
   </si>
   <si>
+    <t>Density Hematology Oncologists (per Thalassemia capita)</t>
+  </si>
+  <si>
+    <t>Bone Marrow Medical Centers by Thalassemia Patients</t>
+  </si>
+  <si>
     <t>Alabama,AL</t>
   </si>
   <si>
@@ -512,6 +518,9 @@
   </si>
   <si>
     <t>34.2</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -869,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,13 +951,19 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>68</v>
@@ -981,10 +996,10 @@
         <v>4.338617810951412e-05</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -1013,13 +1028,19 @@
       <c r="W2">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>8.823529411764707</v>
+      </c>
+      <c r="Y2">
+        <v>9.941176470588236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1052,10 +1073,10 @@
         <v>3.908914211464171e-05</v>
       </c>
       <c r="M3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O3">
         <v>7.8</v>
@@ -1084,13 +1105,19 @@
       <c r="W3">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="Y3">
+        <v>113.6666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>114</v>
@@ -1123,10 +1150,10 @@
         <v>4.169629772945624e-05</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O4">
         <v>9.1</v>
@@ -1155,13 +1182,19 @@
       <c r="W4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>9.148148148148149</v>
+      </c>
+      <c r="Y4">
+        <v>0.4074074074074074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -1194,10 +1227,10 @@
         <v>4.196349244949505e-05</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O5">
         <v>11.2</v>
@@ -1226,13 +1259,19 @@
       <c r="W5">
         <v>1887</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>86</v>
+      </c>
+      <c r="Y5">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>817</v>
@@ -1265,10 +1304,10 @@
         <v>6.234392204212293e-05</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O6">
         <v>9.6</v>
@@ -1297,13 +1336,19 @@
       <c r="W6">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>9.778443113772456</v>
+      </c>
+      <c r="Y6">
+        <v>2.197604790419162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>102</v>
@@ -1336,10 +1381,10 @@
         <v>4.909264341323823e-05</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O7">
         <v>6.4</v>
@@ -1368,13 +1413,19 @@
       <c r="W7">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>41.8</v>
+      </c>
+      <c r="Y7">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>149</v>
@@ -1407,10 +1458,10 @@
         <v>6.906285894512215e-05</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O8">
         <v>8.1</v>
@@ -1439,13 +1490,19 @@
       <c r="W8">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>3.08</v>
+      </c>
+      <c r="Y8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -1478,10 +1535,10 @@
         <v>5.041672574876715e-05</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O9">
         <v>9.9</v>
@@ -1510,13 +1567,19 @@
       <c r="W9">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>7.4</v>
+      </c>
+      <c r="Y9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>65</v>
@@ -1549,10 +1612,10 @@
         <v>0.0001585507288929342</v>
       </c>
       <c r="M10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O10">
         <v>9.300000000000001</v>
@@ -1581,13 +1644,19 @@
       <c r="W10">
         <v>922</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>122</v>
+      </c>
+      <c r="Y10">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>441</v>
@@ -1620,10 +1689,10 @@
         <v>6.335979939103762e-05</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O11">
         <v>9.300000000000001</v>
@@ -1652,13 +1721,19 @@
       <c r="W11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>17.07692307692308</v>
+      </c>
+      <c r="Y11">
+        <v>9.615384615384615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>149</v>
@@ -1691,10 +1766,10 @@
         <v>4.510021996298678e-05</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O12">
         <v>10.7</v>
@@ -1723,13 +1798,19 @@
       <c r="W12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>8.195121951219512</v>
+      </c>
+      <c r="Y12">
+        <v>0.04878048780487805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1762,10 +1843,10 @@
         <v>8.12008201282833e-05</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O13">
         <v>7.8</v>
@@ -1794,13 +1875,19 @@
       <c r="W13">
         <v>655</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>6.571428571428571</v>
+      </c>
+      <c r="Y13">
+        <v>93.57142857142857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1833,10 +1920,10 @@
         <v>3.624178618534406e-05</v>
       </c>
       <c r="M14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O14">
         <v>7.3</v>
@@ -1865,13 +1952,19 @@
       <c r="W14">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>34</v>
+      </c>
+      <c r="Y14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>309</v>
@@ -1904,10 +1997,10 @@
         <v>5.835235904058098e-05</v>
       </c>
       <c r="M15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O15">
         <v>9.1</v>
@@ -1936,13 +2029,19 @@
       <c r="W15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>125</v>
@@ -1975,10 +2074,10 @@
         <v>4.160979868546203e-05</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O16">
         <v>10.5</v>
@@ -2007,13 +2106,19 @@
       <c r="W16">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>36.85714285714285</v>
+      </c>
+      <c r="Y16">
+        <v>35.57142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>37</v>
@@ -2046,10 +2151,10 @@
         <v>4.721355488400299e-05</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O17">
         <v>7.7</v>
@@ -2078,13 +2183,19 @@
       <c r="W17">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>42</v>
@@ -2117,10 +2228,10 @@
         <v>4.368330771381861e-05</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O18">
         <v>8.9</v>
@@ -2149,13 +2260,19 @@
       <c r="W18">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>25.5</v>
+      </c>
+      <c r="Y18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>51</v>
@@ -2188,10 +2305,10 @@
         <v>4.304735614858234e-05</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O19">
         <v>12.1</v>
@@ -2220,13 +2337,19 @@
       <c r="W19">
         <v>689</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>4.184210526315789</v>
+      </c>
+      <c r="Y19">
+        <v>18.13157894736842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>89</v>
@@ -2259,10 +2382,10 @@
         <v>6.813813715032212e-05</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O20">
         <v>11.8</v>
@@ -2291,13 +2414,19 @@
       <c r="W20">
         <v>979</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>25.85714285714286</v>
+      </c>
+      <c r="Y20">
+        <v>139.8571428571429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2330,10 +2459,10 @@
         <v>5.18220715460026e-05</v>
       </c>
       <c r="M21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O21">
         <v>8.199999999999999</v>
@@ -2362,13 +2491,19 @@
       <c r="W21">
         <v>604</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>271</v>
@@ -2401,10 +2536,10 @@
         <v>9.058502468317265e-05</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O22">
         <v>9.4</v>
@@ -2433,13 +2568,19 @@
       <c r="W22">
         <v>544</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>23.27272727272727</v>
+      </c>
+      <c r="Y22">
+        <v>24.72727272727273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>397</v>
@@ -2472,10 +2613,10 @@
         <v>8.881673935692864e-05</v>
       </c>
       <c r="M23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O23">
         <v>8</v>
@@ -2504,13 +2645,19 @@
       <c r="W23">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.7066666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>190</v>
@@ -2543,10 +2690,10 @@
         <v>6.053402898784283e-05</v>
       </c>
       <c r="M24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O24">
         <v>9.5</v>
@@ -2575,13 +2722,19 @@
       <c r="W24">
         <v>559</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>16.84</v>
+      </c>
+      <c r="Y24">
+        <v>22.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>141</v>
@@ -2614,10 +2767,10 @@
         <v>5.199320573802091e-05</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O25">
         <v>6.9</v>
@@ -2646,13 +2799,19 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>19.6875</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>39</v>
@@ -2685,10 +2844,10 @@
         <v>2.844021164870918e-05</v>
       </c>
       <c r="M26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O26">
         <v>13.6</v>
@@ -2717,13 +2876,19 @@
       <c r="W26">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>25</v>
+      </c>
+      <c r="Y26">
+        <v>39.33333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>144</v>
@@ -2756,10 +2921,10 @@
         <v>5.137042507795831e-05</v>
       </c>
       <c r="M27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O27">
         <v>10.2</v>
@@ -2788,13 +2953,19 @@
       <c r="W27">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>16.1875</v>
+      </c>
+      <c r="Y27">
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -2827,10 +2998,10 @@
         <v>5.083835322104132e-05</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O28">
         <v>6.7</v>
@@ -2859,13 +3030,19 @@
       <c r="W28">
         <v>363</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>5.571428571428571</v>
+      </c>
+      <c r="Y28">
+        <v>51.85714285714285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>34</v>
@@ -2898,10 +3075,10 @@
         <v>5.138649143523519e-05</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O29">
         <v>8</v>
@@ -2930,13 +3107,19 @@
       <c r="W29">
         <v>1293</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>13.4</v>
+      </c>
+      <c r="Y29">
+        <v>258.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>43</v>
@@ -2969,10 +3152,10 @@
         <v>3.979513329328877e-05</v>
       </c>
       <c r="M30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O30">
         <v>9</v>
@@ -3001,13 +3184,19 @@
       <c r="W30">
         <v>586</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>19.25</v>
+      </c>
+      <c r="Y30">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>21</v>
@@ -3040,10 +3229,10 @@
         <v>5.094415247285164e-05</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O31">
         <v>6.8</v>
@@ -3072,13 +3261,19 @@
       <c r="W31">
         <v>848</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>9</v>
+      </c>
+      <c r="Y31">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>284</v>
@@ -3111,10 +3306,10 @@
         <v>6.573894995890757e-05</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O32">
         <v>7.9</v>
@@ -3143,13 +3338,19 @@
       <c r="W32">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>6.024691358024691</v>
+      </c>
+      <c r="Y32">
+        <v>1.012345679012346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>40</v>
@@ -3182,10 +3383,10 @@
         <v>3.988438334178273e-05</v>
       </c>
       <c r="M33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O33">
         <v>10.5</v>
@@ -3214,13 +3415,19 @@
       <c r="W33">
         <v>226</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>37.5</v>
+      </c>
+      <c r="Y33">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>713</v>
@@ -3253,10 +3460,10 @@
         <v>8.564068117716585e-05</v>
       </c>
       <c r="M34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O34">
         <v>8.9</v>
@@ -3285,13 +3492,19 @@
       <c r="W34">
         <v>776</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>8.629411764705882</v>
+      </c>
+      <c r="Y34">
+        <v>4.564705882352941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>217</v>
@@ -3324,10 +3537,10 @@
         <v>5.223327815659497e-05</v>
       </c>
       <c r="M35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O35">
         <v>9.6</v>
@@ -3356,13 +3569,19 @@
       <c r="W35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>39.41666666666666</v>
+      </c>
+      <c r="Y35">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>13</v>
@@ -3395,10 +3614,10 @@
         <v>4.221903233977877e-05</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N36" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O36">
         <v>8.1</v>
@@ -3427,13 +3646,19 @@
       <c r="W36">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>258</v>
@@ -3466,10 +3691,10 @@
         <v>5.768714333524505e-05</v>
       </c>
       <c r="M37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O37">
         <v>9.5</v>
@@ -3498,13 +3723,19 @@
       <c r="W37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>28.68421052631579</v>
+      </c>
+      <c r="Y37">
+        <v>0.8421052631578947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>51</v>
@@ -3537,10 +3768,10 @@
         <v>4.001467034665703e-05</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O38">
         <v>10.7</v>
@@ -3569,13 +3800,19 @@
       <c r="W38">
         <v>488</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="Y38">
+        <v>69.71428571428571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>87</v>
@@ -3608,10 +3845,10 @@
         <v>6.547020678080795e-05</v>
       </c>
       <c r="M39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N39" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O39">
         <v>9.6</v>
@@ -3640,13 +3877,19 @@
       <c r="W39">
         <v>1615</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>35.8</v>
+      </c>
+      <c r="Y39">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>362</v>
@@ -3679,10 +3922,10 @@
         <v>6.640995971050889e-05</v>
       </c>
       <c r="M40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N40" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O40">
         <v>8.800000000000001</v>
@@ -3711,13 +3954,19 @@
       <c r="W40">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>12.64516129032258</v>
+      </c>
+      <c r="Y40">
+        <v>3.548387096774194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>37</v>
@@ -3750,10 +3999,10 @@
         <v>6.531456060339295e-05</v>
       </c>
       <c r="M41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O41">
         <v>7.9</v>
@@ -3782,13 +4031,19 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>18.25</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>77</v>
@@ -3821,10 +4076,10 @@
         <v>4.857775030189762e-05</v>
       </c>
       <c r="M42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O42">
         <v>10.5</v>
@@ -3853,13 +4108,19 @@
       <c r="W42">
         <v>191</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>31</v>
+      </c>
+      <c r="Y42">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -3892,10 +4153,10 @@
         <v>4.159666487184761e-05</v>
       </c>
       <c r="M43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O43">
         <v>8.4</v>
@@ -3924,13 +4185,19 @@
       <c r="W43">
         <v>569</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>125</v>
@@ -3963,10 +4230,10 @@
         <v>5.02165475852907e-05</v>
       </c>
       <c r="M44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O44">
         <v>11.4</v>
@@ -3995,13 +4262,19 @@
       <c r="W44">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>18.6</v>
+      </c>
+      <c r="Y44">
+        <v>4.266666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>463</v>
@@ -4034,10 +4307,10 @@
         <v>4.497068399513097e-05</v>
       </c>
       <c r="M45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O45">
         <v>11.2</v>
@@ -4066,13 +4339,19 @@
       <c r="W45">
         <v>380</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>19.03571428571428</v>
+      </c>
+      <c r="Y45">
+        <v>6.785714285714286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>31</v>
@@ -4105,10 +4384,10 @@
         <v>5.374904505317059e-05</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N46" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O46">
         <v>7.5</v>
@@ -4137,13 +4416,19 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>8.111111111111111</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -4176,10 +4461,10 @@
         <v>5.603640124624956e-05</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O47">
         <v>7.1</v>
@@ -4208,13 +4493,19 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>10</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>196</v>
@@ -4247,10 +4538,10 @@
         <v>5.492279424352053e-05</v>
       </c>
       <c r="M48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O48">
         <v>9.6</v>
@@ -4279,13 +4570,19 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>8.263157894736842</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>130</v>
@@ -4318,10 +4615,10 @@
         <v>5.104281009879254e-05</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O49">
         <v>7.7</v>
@@ -4350,13 +4647,19 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>32.63636363636363</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>45</v>
@@ -4389,10 +4692,10 @@
         <v>5.297356455293042e-05</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O50">
         <v>12.5</v>
@@ -4421,13 +4724,16 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>120</v>
@@ -4460,10 +4766,10 @@
         <v>5.520265083475407e-05</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O51">
         <v>7.4</v>
@@ -4492,13 +4798,19 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>41</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -4531,10 +4843,10 @@
         <v>2.220320716787845e-05</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O52">
         <v>7.6</v>
@@ -4562,6 +4874,9 @@
       </c>
       <c r="W52">
         <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/HCPStateLevelData.xlsx
+++ b/HCPStateLevelData.xlsx
@@ -1026,7 +1026,7 @@
         <v>92.77553425624956</v>
       </c>
       <c r="W2">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>8.823529411764707</v>
@@ -1103,7 +1103,7 @@
         <v>1.114986166485147</v>
       </c>
       <c r="W3">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="X3">
         <v>5.666666666666667</v>
@@ -1257,7 +1257,7 @@
         <v>54.67033230503652</v>
       </c>
       <c r="W5">
-        <v>1887</v>
+        <v>341</v>
       </c>
       <c r="X5">
         <v>86</v>
@@ -1334,7 +1334,7 @@
         <v>239.7756763595458</v>
       </c>
       <c r="W6">
-        <v>367</v>
+        <v>1887</v>
       </c>
       <c r="X6">
         <v>9.778443113772456</v>
@@ -1411,7 +1411,7 @@
         <v>53.22653144999115</v>
       </c>
       <c r="W7">
-        <v>87</v>
+        <v>367</v>
       </c>
       <c r="X7">
         <v>41.8</v>
@@ -1488,7 +1488,7 @@
         <v>645.1718346649445</v>
       </c>
       <c r="W8">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="X8">
         <v>3.08</v>
@@ -1565,7 +1565,7 @@
         <v>382.5520749622296</v>
       </c>
       <c r="W9">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="X9">
         <v>7.4</v>
@@ -1642,7 +1642,7 @@
         <v>9967.369037167105</v>
       </c>
       <c r="W10">
-        <v>922</v>
+        <v>39</v>
       </c>
       <c r="X10">
         <v>122</v>
@@ -1719,7 +1719,7 @@
         <v>313.4604616645655</v>
       </c>
       <c r="W11">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="X11">
         <v>17.07692307692308</v>
@@ -1796,7 +1796,7 @@
         <v>173.5018085776813</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="X12">
         <v>8.195121951219512</v>
@@ -1873,7 +1873,7 @@
         <v>130.6799844855155</v>
       </c>
       <c r="W13">
-        <v>655</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>6.571428571428571</v>
@@ -1950,7 +1950,7 @@
         <v>20.14073408843835</v>
       </c>
       <c r="W14">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="X14">
         <v>34</v>
@@ -2027,7 +2027,7 @@
         <v>221.0456620255536</v>
       </c>
       <c r="W15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <v>8.699999999999999</v>
@@ -2104,7 +2104,7 @@
         <v>182.128911532405</v>
       </c>
       <c r="W16">
-        <v>249</v>
+        <v>655</v>
       </c>
       <c r="X16">
         <v>36.85714285714285</v>
@@ -2181,7 +2181,7 @@
         <v>55.70528644295531</v>
       </c>
       <c r="W17">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
         <v>168</v>
@@ -2258,7 +2258,7 @@
         <v>35.33479520009879</v>
       </c>
       <c r="W18">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="X18">
         <v>25.5</v>
@@ -2335,7 +2335,7 @@
         <v>109.8048891550641</v>
       </c>
       <c r="W19">
-        <v>689</v>
+        <v>108</v>
       </c>
       <c r="X19">
         <v>4.184210526315789</v>
@@ -2412,7 +2412,7 @@
         <v>89.38207606877145</v>
       </c>
       <c r="W20">
-        <v>979</v>
+        <v>64</v>
       </c>
       <c r="X20">
         <v>25.85714285714286</v>
@@ -2489,7 +2489,7 @@
         <v>37.63393965020659</v>
       </c>
       <c r="W21">
-        <v>604</v>
+        <v>979</v>
       </c>
       <c r="X21" t="s">
         <v>168</v>
@@ -2566,7 +2566,7 @@
         <v>484.9654157326376</v>
       </c>
       <c r="W22">
-        <v>544</v>
+        <v>689</v>
       </c>
       <c r="X22">
         <v>23.27272727272727</v>
@@ -2643,7 +2643,7 @@
         <v>645.3976970720241</v>
       </c>
       <c r="W23">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>9.880000000000001</v>
@@ -2720,7 +2720,7 @@
         <v>102.6568056520749</v>
       </c>
       <c r="W24">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c r="X24">
         <v>16.84</v>
@@ -2797,7 +2797,7 @@
         <v>63.49455684727459</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="X25">
         <v>19.6875</v>
@@ -2874,7 +2874,7 @@
         <v>61.71001767847476</v>
       </c>
       <c r="W26">
-        <v>118</v>
+        <v>559</v>
       </c>
       <c r="X26">
         <v>25</v>
@@ -2951,7 +2951,7 @@
         <v>87.40873763162058</v>
       </c>
       <c r="W27">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="X27">
         <v>16.1875</v>
@@ -3028,7 +3028,7 @@
         <v>7.090057508954554</v>
       </c>
       <c r="W28">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="X28">
         <v>5.571428571428571</v>
@@ -3105,7 +3105,7 @@
         <v>24.65636712920508</v>
       </c>
       <c r="W29">
-        <v>1293</v>
+        <v>586</v>
       </c>
       <c r="X29">
         <v>13.4</v>
@@ -3182,7 +3182,7 @@
         <v>26.5895777061461</v>
       </c>
       <c r="W30">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="X30">
         <v>19.25</v>
@@ -3259,7 +3259,7 @@
         <v>142.7716500733756</v>
       </c>
       <c r="W31">
-        <v>848</v>
+        <v>118</v>
       </c>
       <c r="X31">
         <v>9</v>
@@ -3336,7 +3336,7 @@
         <v>1025.43845972178</v>
       </c>
       <c r="W32">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="X32">
         <v>6.024691358024691</v>
@@ -3413,7 +3413,7 @@
         <v>17.11497545445648</v>
       </c>
       <c r="W33">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="X33">
         <v>37.5</v>
@@ -3490,7 +3490,7 @@
         <v>361.9337593011674</v>
       </c>
       <c r="W34">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>8.629411764705882</v>
@@ -3567,7 +3567,7 @@
         <v>188.5348637920027</v>
       </c>
       <c r="W35">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X35">
         <v>39.41666666666666</v>
@@ -3644,7 +3644,7 @@
         <v>10.72093367989508</v>
       </c>
       <c r="W36">
-        <v>102</v>
+        <v>1293</v>
       </c>
       <c r="X36" t="s">
         <v>168</v>
@@ -3721,7 +3721,7 @@
         <v>259.1014550174253</v>
       </c>
       <c r="W37">
-        <v>16</v>
+        <v>848</v>
       </c>
       <c r="X37">
         <v>28.68421052631579</v>
@@ -3798,7 +3798,7 @@
         <v>56.13196608185512</v>
       </c>
       <c r="W38">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="X38">
         <v>16.85714285714286</v>
@@ -3875,7 +3875,7 @@
         <v>41.60932861983925</v>
       </c>
       <c r="W39">
-        <v>1615</v>
+        <v>226</v>
       </c>
       <c r="X39">
         <v>35.8</v>
@@ -3952,7 +3952,7 @@
         <v>277.5900599161773</v>
       </c>
       <c r="W40">
-        <v>220</v>
+        <v>776</v>
       </c>
       <c r="X40">
         <v>12.64516129032258</v>
@@ -4029,7 +4029,7 @@
         <v>683.8195599686709</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="X41">
         <v>18.25</v>
@@ -4106,7 +4106,7 @@
         <v>154.9357614452496</v>
       </c>
       <c r="W42">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="X42">
         <v>31</v>
@@ -4183,7 +4183,7 @@
         <v>11.22280189969148</v>
       </c>
       <c r="W43">
-        <v>569</v>
+        <v>16</v>
       </c>
       <c r="X43" t="s">
         <v>168</v>
@@ -4260,7 +4260,7 @@
         <v>157.8197262971817</v>
       </c>
       <c r="W44">
-        <v>64</v>
+        <v>488</v>
       </c>
       <c r="X44">
         <v>18.6</v>
@@ -4337,7 +4337,7 @@
         <v>103.7340402773737</v>
       </c>
       <c r="W45">
-        <v>380</v>
+        <v>1615</v>
       </c>
       <c r="X45">
         <v>19.03571428571428</v>
@@ -4414,7 +4414,7 @@
         <v>35.94027248115596</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="X46">
         <v>8.111111111111111</v>
@@ -4491,7 +4491,7 @@
         <v>64.95118735155505</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="X47">
         <v>10</v>
@@ -4645,7 +4645,7 @@
         <v>102.2189277531822</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="X49">
         <v>32.63636363636363</v>
@@ -4722,7 +4722,7 @@
         <v>75.57156323307761</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="X50" t="s">
         <v>168</v>
@@ -4796,7 +4796,7 @@
         <v>88.22942580948749</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="X51">
         <v>41</v>

--- a/HCPStateLevelData.xlsx
+++ b/HCPStateLevelData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushanth.kodali/Downloads/Blue-Bird-Bio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54BE322-C209-1D47-BD56-E789FF8BE4C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Physician Population Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
   <si>
     <t>State</t>
   </si>
@@ -521,13 +527,16 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>BR (35-50)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -575,13 +584,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -590,6 +613,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,7 +667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,9 +699,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,6 +751,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,14 +944,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="44" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,8 +1032,11 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -990,10 +1068,10 @@
         <v>4863300</v>
       </c>
       <c r="K2">
-        <v>1.398227540970123e-05</v>
+        <v>1.3982275409701231E-5</v>
       </c>
       <c r="L2">
-        <v>4.338617810951412e-05</v>
+        <v>4.3386178109514118E-5</v>
       </c>
       <c r="M2" t="s">
         <v>75</v>
@@ -1017,25 +1095,28 @@
         <v>17</v>
       </c>
       <c r="T2">
-        <v>3.495568852425308e-06</v>
+        <v>3.4955688524253081E-6</v>
       </c>
       <c r="U2">
-        <v>3.084325458022331e-05</v>
+        <v>3.0843254580223313E-5</v>
       </c>
       <c r="V2">
-        <v>92.77553425624956</v>
+        <v>92.775534256249557</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>8.823529411764707</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="Y2">
-        <v>9.941176470588236</v>
+        <v>9.9411764705882355</v>
+      </c>
+      <c r="Z2">
+        <v>9.31</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1067,10 +1148,10 @@
         <v>741894</v>
       </c>
       <c r="K3">
-        <v>1.347901452229025e-05</v>
+        <v>1.347901452229025E-5</v>
       </c>
       <c r="L3">
-        <v>3.908914211464171e-05</v>
+        <v>3.9089142114641708E-5</v>
       </c>
       <c r="M3" t="s">
         <v>76</v>
@@ -1094,10 +1175,10 @@
         <v>3</v>
       </c>
       <c r="T3">
-        <v>4.043704356687074e-06</v>
+        <v>4.0437043566870742E-6</v>
       </c>
       <c r="U3">
-        <v>2.291432468789342e-05</v>
+        <v>2.2914324687893421E-5</v>
       </c>
       <c r="V3">
         <v>1.114986166485147</v>
@@ -1111,8 +1192,11 @@
       <c r="Y3">
         <v>113.6666666666667</v>
       </c>
+      <c r="Z3">
+        <v>11.33</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1144,10 +1228,10 @@
         <v>6931071</v>
       </c>
       <c r="K4">
-        <v>1.644767453687893e-05</v>
+        <v>1.6447674536878929E-5</v>
       </c>
       <c r="L4">
-        <v>4.169629772945624e-05</v>
+        <v>4.1696297729456237E-5</v>
       </c>
       <c r="M4" t="s">
         <v>77</v>
@@ -1171,25 +1255,28 @@
         <v>27</v>
       </c>
       <c r="T4">
-        <v>3.895501863997642e-06</v>
+        <v>3.8955018639976421E-6</v>
       </c>
       <c r="U4">
-        <v>3.563662816323769e-05</v>
+        <v>3.5636628163237689E-5</v>
       </c>
       <c r="V4">
-        <v>60.80404209831889</v>
+        <v>60.804042098318888</v>
       </c>
       <c r="W4">
         <v>11</v>
       </c>
       <c r="X4">
-        <v>9.148148148148149</v>
+        <v>9.1481481481481488</v>
       </c>
       <c r="Y4">
-        <v>0.4074074074074074</v>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="Z4">
+        <v>12.79</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1221,10 +1308,10 @@
         <v>2907289</v>
       </c>
       <c r="K5">
-        <v>1.444644822031797e-05</v>
+        <v>1.444644822031797E-5</v>
       </c>
       <c r="L5">
-        <v>4.196349244949505e-05</v>
+        <v>4.1963492449495052E-5</v>
       </c>
       <c r="M5" t="s">
         <v>78</v>
@@ -1248,13 +1335,13 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>3.439630528647135e-07</v>
+        <v>3.4396305286471351E-7</v>
       </c>
       <c r="U5">
-        <v>2.958082254636536e-05</v>
+        <v>2.9580822546365358E-5</v>
       </c>
       <c r="V5">
-        <v>54.67033230503652</v>
+        <v>54.670332305036517</v>
       </c>
       <c r="W5">
         <v>341</v>
@@ -1265,8 +1352,11 @@
       <c r="Y5">
         <v>1887</v>
       </c>
+      <c r="Z5">
+        <v>8.06</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1298,10 +1388,10 @@
         <v>39250017</v>
       </c>
       <c r="K6">
-        <v>2.081527760866957e-05</v>
+        <v>2.0815277608669569E-5</v>
       </c>
       <c r="L6">
-        <v>6.234392204212293e-05</v>
+        <v>6.2343922042122933E-5</v>
       </c>
       <c r="M6" t="s">
         <v>79</v>
@@ -1325,10 +1415,10 @@
         <v>167</v>
       </c>
       <c r="T6">
-        <v>4.254775227231112e-06</v>
+        <v>4.2547752272311116E-6</v>
       </c>
       <c r="U6">
-        <v>4.160507752136769e-05</v>
+        <v>4.1605077521367688E-5</v>
       </c>
       <c r="V6">
         <v>239.7756763595458</v>
@@ -1337,13 +1427,16 @@
         <v>1887</v>
       </c>
       <c r="X6">
-        <v>9.778443113772456</v>
+        <v>9.7784431137724557</v>
       </c>
       <c r="Y6">
-        <v>2.197604790419162</v>
+        <v>2.1976047904191618</v>
+      </c>
+      <c r="Z6">
+        <v>18.23</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1375,10 +1468,10 @@
         <v>5540545</v>
       </c>
       <c r="K7">
-        <v>1.840974127996433e-05</v>
+        <v>1.8409741279964331E-5</v>
       </c>
       <c r="L7">
-        <v>4.909264341323823e-05</v>
+        <v>4.9092643413238233E-5</v>
       </c>
       <c r="M7" t="s">
         <v>80</v>
@@ -1402,10 +1495,10 @@
         <v>5</v>
       </c>
       <c r="T7">
-        <v>9.024382980374674e-07</v>
+        <v>9.0243829803746738E-7</v>
       </c>
       <c r="U7">
-        <v>3.772192085796614e-05</v>
+        <v>3.772192085796614E-5</v>
       </c>
       <c r="V7">
         <v>53.22653144999115</v>
@@ -1417,10 +1510,13 @@
         <v>41.8</v>
       </c>
       <c r="Y7">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>16.18</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1452,10 +1548,10 @@
         <v>3576452</v>
       </c>
       <c r="K8">
-        <v>4.16614007401749e-05</v>
+        <v>4.1661400740174903E-5</v>
       </c>
       <c r="L8">
-        <v>6.906285894512215e-05</v>
+        <v>6.9062858945122152E-5</v>
       </c>
       <c r="M8" t="s">
         <v>81</v>
@@ -1479,13 +1575,13 @@
         <v>75</v>
       </c>
       <c r="T8">
-        <v>2.097050372827596e-05</v>
+        <v>2.097050372827596E-5</v>
       </c>
       <c r="U8">
-        <v>6.458915148308995e-05</v>
+        <v>6.4589151483089948E-5</v>
       </c>
       <c r="V8">
-        <v>645.1718346649445</v>
+        <v>645.17183466494453</v>
       </c>
       <c r="W8">
         <v>87</v>
@@ -1496,8 +1592,11 @@
       <c r="Y8">
         <v>0.84</v>
       </c>
+      <c r="Z8">
+        <v>21.31</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1529,10 +1628,10 @@
         <v>952065</v>
       </c>
       <c r="K9">
-        <v>1.680557524958905e-05</v>
+        <v>1.6805575249589051E-5</v>
       </c>
       <c r="L9">
-        <v>5.041672574876715e-05</v>
+        <v>5.0416725748767147E-5</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -1544,7 +1643,7 @@
         <v>9.9</v>
       </c>
       <c r="P9">
-        <v>2488.72</v>
+        <v>2488.7199999999998</v>
       </c>
       <c r="Q9">
         <v>17.7</v>
@@ -1556,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="T9">
-        <v>5.251742265496579e-06</v>
+        <v>5.2517422654965794E-6</v>
       </c>
       <c r="U9">
-        <v>3.886289276467468e-05</v>
+        <v>3.8862892764674682E-5</v>
       </c>
       <c r="V9">
         <v>382.5520749622296</v>
@@ -1573,8 +1672,11 @@
       <c r="Y9">
         <v>7.8</v>
       </c>
+      <c r="Z9">
+        <v>14.03</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1606,10 +1708,10 @@
         <v>681170</v>
       </c>
       <c r="K10">
-        <v>9.542404979667338e-05</v>
+        <v>9.5424049796673376E-5</v>
       </c>
       <c r="L10">
-        <v>0.0001585507288929342</v>
+        <v>1.5855072889293419E-4</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -1618,7 +1720,7 @@
         <v>134</v>
       </c>
       <c r="O10">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P10">
         <v>68.34</v>
@@ -1633,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>1.468062304564206e-06</v>
+        <v>1.4680623045642059E-6</v>
       </c>
       <c r="U10">
-        <v>0.0001791036011568331</v>
+        <v>1.7910360115683309E-4</v>
       </c>
       <c r="V10">
-        <v>9967.369037167105</v>
+        <v>9967.3690371671055</v>
       </c>
       <c r="W10">
         <v>39</v>
@@ -1650,8 +1752,11 @@
       <c r="Y10">
         <v>922</v>
       </c>
+      <c r="Z10">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1683,10 +1788,10 @@
         <v>20612439</v>
       </c>
       <c r="K11">
-        <v>2.139484803326768e-05</v>
+        <v>2.1394848033267682E-5</v>
       </c>
       <c r="L11">
-        <v>6.335979939103762e-05</v>
+        <v>6.3359799391037619E-5</v>
       </c>
       <c r="M11" t="s">
         <v>84</v>
@@ -1695,7 +1800,7 @@
         <v>135</v>
       </c>
       <c r="O11">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P11">
         <v>65757.7</v>
@@ -1710,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="T11">
-        <v>2.522748520929522e-06</v>
+        <v>2.5227485209295219E-6</v>
       </c>
       <c r="U11">
-        <v>4.308078243433492e-05</v>
+        <v>4.3080782434334921E-5</v>
       </c>
       <c r="V11">
-        <v>313.4604616645655</v>
+        <v>313.46046166456551</v>
       </c>
       <c r="W11">
         <v>922</v>
@@ -1727,8 +1832,11 @@
       <c r="Y11">
         <v>9.615384615384615</v>
       </c>
+      <c r="Z11">
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1760,10 +1868,10 @@
         <v>10310371</v>
       </c>
       <c r="K12">
-        <v>1.445146833222587e-05</v>
+        <v>1.4451468332225869E-5</v>
       </c>
       <c r="L12">
-        <v>4.510021996298678e-05</v>
+        <v>4.5100219962986782E-5</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -1778,7 +1886,7 @@
         <v>59425.15</v>
       </c>
       <c r="Q12">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="R12">
         <v>336</v>
@@ -1787,25 +1895,28 @@
         <v>41</v>
       </c>
       <c r="T12">
-        <v>3.976578534370877e-06</v>
+        <v>3.9765785343708772E-6</v>
       </c>
       <c r="U12">
-        <v>3.25885460377711e-05</v>
+        <v>3.2588546037771097E-5</v>
       </c>
       <c r="V12">
-        <v>173.5018085776813</v>
+        <v>173.50180857768129</v>
       </c>
       <c r="W12">
         <v>500</v>
       </c>
       <c r="X12">
-        <v>8.195121951219512</v>
+        <v>8.1951219512195124</v>
       </c>
       <c r="Y12">
-        <v>0.04878048780487805</v>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="Z12">
+        <v>13.41</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1837,10 +1948,10 @@
         <v>1428557</v>
       </c>
       <c r="K13">
-        <v>1.540015554157097e-05</v>
+        <v>1.5400155541570971E-5</v>
       </c>
       <c r="L13">
-        <v>8.12008201282833e-05</v>
+        <v>8.1200820128283301E-5</v>
       </c>
       <c r="M13" t="s">
         <v>86</v>
@@ -1864,25 +1975,28 @@
         <v>7</v>
       </c>
       <c r="T13">
-        <v>4.900049490499854e-06</v>
+        <v>4.9000494904998539E-6</v>
       </c>
       <c r="U13">
-        <v>3.220032522328476e-05</v>
+        <v>3.2200325223284762E-5</v>
       </c>
       <c r="V13">
-        <v>130.6799844855155</v>
+        <v>130.67998448551549</v>
       </c>
       <c r="W13">
         <v>2</v>
       </c>
       <c r="X13">
-        <v>6.571428571428571</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="Y13">
-        <v>93.57142857142857</v>
+        <v>93.571428571428569</v>
+      </c>
+      <c r="Z13">
+        <v>17.18</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1914,10 +2028,10 @@
         <v>1683140</v>
       </c>
       <c r="K14">
-        <v>7.723659350974964e-06</v>
+        <v>7.7236593509749641E-6</v>
       </c>
       <c r="L14">
-        <v>3.624178618534406e-05</v>
+        <v>3.6241786185344061E-5</v>
       </c>
       <c r="M14" t="s">
         <v>87</v>
@@ -1941,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="T14">
-        <v>5.941276423826895e-07</v>
+        <v>5.9412764238268955E-7</v>
       </c>
       <c r="U14">
-        <v>2.020033984101144e-05</v>
+        <v>2.0200339841011441E-5</v>
       </c>
       <c r="V14">
         <v>20.14073408843835</v>
@@ -1958,8 +2072,11 @@
       <c r="Y14">
         <v>197</v>
       </c>
+      <c r="Z14">
+        <v>10.24</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1991,10 +2108,10 @@
         <v>12801539</v>
       </c>
       <c r="K15">
-        <v>2.41377228159833e-05</v>
+        <v>2.4137722815983299E-5</v>
       </c>
       <c r="L15">
-        <v>5.835235904058098e-05</v>
+        <v>5.8352359040580978E-5</v>
       </c>
       <c r="M15" t="s">
         <v>88</v>
@@ -2018,25 +2135,28 @@
         <v>70</v>
       </c>
       <c r="T15">
-        <v>5.468092547310132e-06</v>
+        <v>5.4680925473101322E-6</v>
       </c>
       <c r="U15">
-        <v>4.757240516159815e-05</v>
+        <v>4.7572405161598151E-5</v>
       </c>
       <c r="V15">
-        <v>221.0456620255536</v>
+        <v>221.04566202555361</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Y15">
         <v>1.428571428571429</v>
       </c>
+      <c r="Z15">
+        <v>15.76</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2068,10 +2188,10 @@
         <v>6633053</v>
       </c>
       <c r="K16">
-        <v>1.884501752058969e-05</v>
+        <v>1.8845017520589692E-5</v>
       </c>
       <c r="L16">
-        <v>4.160979868546203e-05</v>
+        <v>4.1609798685462033E-5</v>
       </c>
       <c r="M16" t="s">
         <v>89</v>
@@ -2083,7 +2203,7 @@
         <v>10.5</v>
       </c>
       <c r="P16">
-        <v>36419.55</v>
+        <v>36419.550000000003</v>
       </c>
       <c r="Q16">
         <v>21.1</v>
@@ -2095,10 +2215,10 @@
         <v>7</v>
       </c>
       <c r="T16">
-        <v>1.055320981153022e-06</v>
+        <v>1.0553209811530221E-6</v>
       </c>
       <c r="U16">
-        <v>3.889611616249712e-05</v>
+        <v>3.8896116162497117E-5</v>
       </c>
       <c r="V16">
         <v>182.128911532405</v>
@@ -2107,13 +2227,16 @@
         <v>655</v>
       </c>
       <c r="X16">
-        <v>36.85714285714285</v>
+        <v>36.857142857142847</v>
       </c>
       <c r="Y16">
-        <v>35.57142857142857</v>
+        <v>35.571428571428569</v>
+      </c>
+      <c r="Z16">
+        <v>10.51</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2145,10 +2268,10 @@
         <v>3134693</v>
       </c>
       <c r="K17">
-        <v>1.180338872100075e-05</v>
+        <v>1.180338872100075E-5</v>
       </c>
       <c r="L17">
-        <v>4.721355488400299e-05</v>
+        <v>4.7213554884002987E-5</v>
       </c>
       <c r="M17" t="s">
         <v>90</v>
@@ -2175,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>3.317709262119129e-05</v>
+        <v>3.3177092621191293E-5</v>
       </c>
       <c r="V17">
-        <v>55.70528644295531</v>
+        <v>55.705286442955313</v>
       </c>
       <c r="W17">
         <v>197</v>
@@ -2189,8 +2312,11 @@
       <c r="Y17" t="s">
         <v>168</v>
       </c>
+      <c r="Z17">
+        <v>10.73</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2222,10 +2348,10 @@
         <v>2907289</v>
       </c>
       <c r="K18">
-        <v>1.444644822031797e-05</v>
+        <v>1.444644822031797E-5</v>
       </c>
       <c r="L18">
-        <v>4.368330771381861e-05</v>
+        <v>4.3683307713818607E-5</v>
       </c>
       <c r="M18" t="s">
         <v>91</v>
@@ -2249,13 +2375,13 @@
         <v>4</v>
       </c>
       <c r="T18">
-        <v>1.375852211458854e-06</v>
+        <v>1.3758522114588541E-6</v>
       </c>
       <c r="U18">
-        <v>3.508423139220077e-05</v>
+        <v>3.5084231392200768E-5</v>
       </c>
       <c r="V18">
-        <v>35.33479520009879</v>
+        <v>35.334795200098789</v>
       </c>
       <c r="W18">
         <v>249</v>
@@ -2266,8 +2392,11 @@
       <c r="Y18">
         <v>16</v>
       </c>
+      <c r="Z18">
+        <v>10.85</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2299,10 +2428,10 @@
         <v>4436974</v>
       </c>
       <c r="K19">
-        <v>1.149432022815549e-05</v>
+        <v>1.1494320228155489E-5</v>
       </c>
       <c r="L19">
-        <v>4.304735614858234e-05</v>
+        <v>4.3047356148582342E-5</v>
       </c>
       <c r="M19" t="s">
         <v>92</v>
@@ -2314,7 +2443,7 @@
         <v>12.1</v>
       </c>
       <c r="P19">
-        <v>40407.8</v>
+        <v>40407.800000000003</v>
       </c>
       <c r="Q19">
         <v>24.5</v>
@@ -2326,10 +2455,10 @@
         <v>38</v>
       </c>
       <c r="T19">
-        <v>8.564395464115859e-06</v>
+        <v>8.564395464115859E-6</v>
       </c>
       <c r="U19">
-        <v>3.583523365248478e-05</v>
+        <v>3.5835233652484782E-5</v>
       </c>
       <c r="V19">
         <v>109.8048891550641</v>
@@ -2338,13 +2467,16 @@
         <v>108</v>
       </c>
       <c r="X19">
-        <v>4.184210526315789</v>
+        <v>4.1842105263157894</v>
       </c>
       <c r="Y19">
-        <v>18.13157894736842</v>
+        <v>18.131578947368421</v>
+      </c>
+      <c r="Z19">
+        <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2376,10 +2508,10 @@
         <v>4681666</v>
       </c>
       <c r="K20">
-        <v>1.901032666576386e-05</v>
+        <v>1.9010326665763859E-5</v>
       </c>
       <c r="L20">
-        <v>6.813813715032212e-05</v>
+        <v>6.8138137150322123E-5</v>
       </c>
       <c r="M20" t="s">
         <v>93</v>
@@ -2403,25 +2535,28 @@
         <v>7</v>
       </c>
       <c r="T20">
-        <v>1.49519423213873e-06</v>
+        <v>1.49519423213873E-6</v>
       </c>
       <c r="U20">
-        <v>3.866145085958717e-05</v>
+        <v>3.8661450859587167E-5</v>
       </c>
       <c r="V20">
-        <v>89.38207606877145</v>
+        <v>89.382076068771454</v>
       </c>
       <c r="W20">
         <v>64</v>
       </c>
       <c r="X20">
-        <v>25.85714285714286</v>
+        <v>25.857142857142861</v>
       </c>
       <c r="Y20">
-        <v>139.8571428571429</v>
+        <v>139.85714285714289</v>
+      </c>
+      <c r="Z20">
+        <v>8.65</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2453,10 +2588,10 @@
         <v>1331479</v>
       </c>
       <c r="K21">
-        <v>1.502089030318916e-05</v>
+        <v>1.502089030318916E-5</v>
       </c>
       <c r="L21">
-        <v>5.18220715460026e-05</v>
+        <v>5.1822071546002602E-5</v>
       </c>
       <c r="M21" t="s">
         <v>94</v>
@@ -2465,7 +2600,7 @@
         <v>143</v>
       </c>
       <c r="O21">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P21">
         <v>35379.74</v>
@@ -2483,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>4.431162639440803e-05</v>
+        <v>4.4311626394408033E-5</v>
       </c>
       <c r="V21">
-        <v>37.63393965020659</v>
+        <v>37.633939650206592</v>
       </c>
       <c r="W21">
         <v>979</v>
@@ -2497,8 +2632,11 @@
       <c r="Y21" t="s">
         <v>168</v>
       </c>
+      <c r="Z21">
+        <v>13.44</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2530,10 +2668,10 @@
         <v>6016447</v>
       </c>
       <c r="K22">
-        <v>4.504319575988952e-05</v>
+        <v>4.5043195759889522E-5</v>
       </c>
       <c r="L22">
-        <v>9.058502468317265e-05</v>
+        <v>9.0585024683172648E-5</v>
       </c>
       <c r="M22" t="s">
         <v>95</v>
@@ -2557,13 +2695,13 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>3.656643198219813e-06</v>
+        <v>3.6566431982198132E-6</v>
       </c>
       <c r="U22">
-        <v>8.510005988584293e-05</v>
+        <v>8.5100059885842929E-5</v>
       </c>
       <c r="V22">
-        <v>484.9654157326376</v>
+        <v>484.96541573263761</v>
       </c>
       <c r="W22">
         <v>689</v>
@@ -2574,8 +2712,11 @@
       <c r="Y22">
         <v>24.72727272727273</v>
       </c>
+      <c r="Z22">
+        <v>18.28</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2607,10 +2748,10 @@
         <v>6811779</v>
       </c>
       <c r="K23">
-        <v>5.828139756148871e-05</v>
+        <v>5.8281397561488707E-5</v>
       </c>
       <c r="L23">
-        <v>8.881673935692864e-05</v>
+        <v>8.8816739356928638E-5</v>
       </c>
       <c r="M23" t="s">
         <v>96</v>
@@ -2634,25 +2775,28 @@
         <v>75</v>
       </c>
       <c r="T23">
-        <v>1.10103395897019e-05</v>
+        <v>1.10103395897019E-5</v>
       </c>
       <c r="U23">
-        <v>0.0001087821551462547</v>
+        <v>1.0878215514625471E-4</v>
       </c>
       <c r="V23">
-        <v>645.3976970720241</v>
+        <v>645.39769707202413</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="Y23">
-        <v>0.7066666666666667</v>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="Z23">
+        <v>22.5</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2684,10 +2828,10 @@
         <v>9928300</v>
       </c>
       <c r="K24">
-        <v>1.913721382311171e-05</v>
+        <v>1.9137213823111709E-5</v>
       </c>
       <c r="L24">
-        <v>6.053402898784283e-05</v>
+        <v>6.0534028987842827E-5</v>
       </c>
       <c r="M24" t="s">
         <v>97</v>
@@ -2699,10 +2843,10 @@
         <v>9.5</v>
       </c>
       <c r="P24">
-        <v>96713.50999999999</v>
+        <v>96713.51</v>
       </c>
       <c r="Q24">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="R24">
         <v>421</v>
@@ -2711,13 +2855,13 @@
         <v>25</v>
       </c>
       <c r="T24">
-        <v>2.518054450409436e-06</v>
+        <v>2.5180544504094361E-6</v>
       </c>
       <c r="U24">
-        <v>4.240403694489489e-05</v>
+        <v>4.2404036944894893E-5</v>
       </c>
       <c r="V24">
-        <v>102.6568056520749</v>
+        <v>102.65680565207489</v>
       </c>
       <c r="W24">
         <v>604</v>
@@ -2728,8 +2872,11 @@
       <c r="Y24">
         <v>22.36</v>
       </c>
+      <c r="Z24">
+        <v>12.84</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2761,10 +2908,10 @@
         <v>5519952</v>
       </c>
       <c r="K25">
-        <v>2.55437003800033e-05</v>
+        <v>2.5543700380003301E-5</v>
       </c>
       <c r="L25">
-        <v>5.199320573802091e-05</v>
+        <v>5.1993205738020907E-5</v>
       </c>
       <c r="M25" t="s">
         <v>98</v>
@@ -2788,13 +2935,13 @@
         <v>16</v>
       </c>
       <c r="T25">
-        <v>2.898575929645765e-06</v>
+        <v>2.8985759296457651E-6</v>
       </c>
       <c r="U25">
-        <v>5.7065713614901e-05</v>
+        <v>5.7065713614901E-5</v>
       </c>
       <c r="V25">
-        <v>63.49455684727459</v>
+        <v>63.494556847274588</v>
       </c>
       <c r="W25">
         <v>544</v>
@@ -2805,8 +2952,11 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>14.52</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2838,10 +2988,10 @@
         <v>2988726</v>
       </c>
       <c r="K26">
-        <v>1.304903828587833e-05</v>
+        <v>1.304903828587833E-5</v>
       </c>
       <c r="L26">
-        <v>2.844021164870918e-05</v>
+        <v>2.8440211648709181E-5</v>
       </c>
       <c r="M26" t="s">
         <v>99</v>
@@ -2865,13 +3015,13 @@
         <v>3</v>
       </c>
       <c r="T26">
-        <v>1.003772175836795e-06</v>
+        <v>1.0037721758367951E-6</v>
       </c>
       <c r="U26">
-        <v>2.509430439591987e-05</v>
+        <v>2.5094304395919871E-5</v>
       </c>
       <c r="V26">
-        <v>61.71001767847476</v>
+        <v>61.710017678474763</v>
       </c>
       <c r="W26">
         <v>559</v>
@@ -2880,10 +3030,13 @@
         <v>25</v>
       </c>
       <c r="Y26">
-        <v>39.33333333333334</v>
+        <v>39.333333333333343</v>
+      </c>
+      <c r="Z26">
+        <v>7.67</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2915,10 +3068,10 @@
         <v>6093000</v>
       </c>
       <c r="K27">
-        <v>2.363367799113737e-05</v>
+        <v>2.3633677991137369E-5</v>
       </c>
       <c r="L27">
-        <v>5.137042507795831e-05</v>
+        <v>5.1370425077958311E-5</v>
       </c>
       <c r="M27" t="s">
         <v>100</v>
@@ -2927,10 +3080,10 @@
         <v>149</v>
       </c>
       <c r="O27">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="P27">
-        <v>69706.99000000001</v>
+        <v>69706.990000000005</v>
       </c>
       <c r="Q27">
         <v>22.1</v>
@@ -2942,13 +3095,13 @@
         <v>16</v>
       </c>
       <c r="T27">
-        <v>2.625964221237486e-06</v>
+        <v>2.6259642212374861E-6</v>
       </c>
       <c r="U27">
-        <v>4.25077958312818e-05</v>
+        <v>4.25077958312818E-5</v>
       </c>
       <c r="V27">
-        <v>87.40873763162058</v>
+        <v>87.408737631620582</v>
       </c>
       <c r="W27">
         <v>53</v>
@@ -2959,8 +3112,11 @@
       <c r="Y27">
         <v>2.375</v>
       </c>
+      <c r="Z27">
+        <v>10.57</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2992,10 +3148,10 @@
         <v>1042520</v>
       </c>
       <c r="K28">
-        <v>1.055135632889537e-05</v>
+        <v>1.055135632889537E-5</v>
       </c>
       <c r="L28">
-        <v>5.083835322104132e-05</v>
+        <v>5.0838353221041321E-5</v>
       </c>
       <c r="M28" t="s">
         <v>101</v>
@@ -3019,25 +3175,28 @@
         <v>7</v>
       </c>
       <c r="T28">
-        <v>6.714499482024325e-06</v>
+        <v>6.7144994820243254E-6</v>
       </c>
       <c r="U28">
-        <v>3.740935425699267e-05</v>
+        <v>3.7409354256992672E-5</v>
       </c>
       <c r="V28">
-        <v>7.090057508954554</v>
+        <v>7.0900575089545539</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>5.571428571428571</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="Y28">
-        <v>51.85714285714285</v>
+        <v>51.857142857142847</v>
+      </c>
+      <c r="Z28">
+        <v>11.47</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3069,10 +3228,10 @@
         <v>1907116</v>
       </c>
       <c r="K29">
-        <v>1.782796641630609e-05</v>
+        <v>1.7827966416306088E-5</v>
       </c>
       <c r="L29">
-        <v>5.138649143523519e-05</v>
+        <v>5.138649143523519E-5</v>
       </c>
       <c r="M29" t="s">
         <v>102</v>
@@ -3096,10 +3255,10 @@
         <v>5</v>
       </c>
       <c r="T29">
-        <v>2.621759767103836e-06</v>
+        <v>2.621759767103836E-6</v>
       </c>
       <c r="U29">
-        <v>3.513158087919141e-05</v>
+        <v>3.5131580879191413E-5</v>
       </c>
       <c r="V29">
         <v>24.65636712920508</v>
@@ -3111,10 +3270,13 @@
         <v>13.4</v>
       </c>
       <c r="Y29">
-        <v>258.6</v>
+        <v>258.60000000000002</v>
+      </c>
+      <c r="Z29">
+        <v>11.39</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3146,10 +3308,10 @@
         <v>2940058</v>
       </c>
       <c r="K30">
-        <v>1.462556180864459e-05</v>
+        <v>1.462556180864459E-5</v>
       </c>
       <c r="L30">
-        <v>3.979513329328877e-05</v>
+        <v>3.9795133293288768E-5</v>
       </c>
       <c r="M30" t="s">
         <v>103</v>
@@ -3173,13 +3335,13 @@
         <v>4</v>
       </c>
       <c r="T30">
-        <v>1.360517377548334e-06</v>
+        <v>1.3605173775483339E-6</v>
       </c>
       <c r="U30">
-        <v>2.618995951780543e-05</v>
+        <v>2.618995951780543E-5</v>
       </c>
       <c r="V30">
-        <v>26.5895777061461</v>
+        <v>26.589577706146098</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3190,8 +3352,11 @@
       <c r="Y30">
         <v>146.5</v>
       </c>
+      <c r="Z30">
+        <v>14.2</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3223,10 +3388,10 @@
         <v>1334795</v>
       </c>
       <c r="K31">
-        <v>1.573275296955712e-05</v>
+        <v>1.5732752969557118E-5</v>
       </c>
       <c r="L31">
-        <v>5.094415247285164e-05</v>
+        <v>5.0944152472851638E-5</v>
       </c>
       <c r="M31" t="s">
         <v>104</v>
@@ -3250,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="T31">
-        <v>5.993429702688428e-06</v>
+        <v>5.9934297026884282E-6</v>
       </c>
       <c r="U31">
-        <v>5.394086732419585e-05</v>
+        <v>5.394086732419585E-5</v>
       </c>
       <c r="V31">
-        <v>142.7716500733756</v>
+        <v>142.77165007337561</v>
       </c>
       <c r="W31">
         <v>118</v>
@@ -3267,8 +3432,11 @@
       <c r="Y31">
         <v>106</v>
       </c>
+      <c r="Z31">
+        <v>16.77</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3300,10 +3468,10 @@
         <v>8944469</v>
       </c>
       <c r="K32">
-        <v>3.175146562641113e-05</v>
+        <v>3.1751465626411127E-5</v>
       </c>
       <c r="L32">
-        <v>6.573894995890757e-05</v>
+        <v>6.5738949958907571E-5</v>
       </c>
       <c r="M32" t="s">
         <v>105</v>
@@ -3327,10 +3495,10 @@
         <v>81</v>
       </c>
       <c r="T32">
-        <v>9.05587575964543e-06</v>
+        <v>9.0558757596454296E-6</v>
       </c>
       <c r="U32">
-        <v>5.455885642848111e-05</v>
+        <v>5.4558856428481113E-5</v>
       </c>
       <c r="V32">
         <v>1025.43845972178</v>
@@ -3339,13 +3507,16 @@
         <v>38</v>
       </c>
       <c r="X32">
-        <v>6.024691358024691</v>
+        <v>6.0246913580246906</v>
       </c>
       <c r="Y32">
         <v>1.012345679012346</v>
       </c>
+      <c r="Z32">
+        <v>21.36</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3377,10 +3548,10 @@
         <v>2081015</v>
       </c>
       <c r="K33">
-        <v>1.922138956230493e-05</v>
+        <v>1.9221389562304931E-5</v>
       </c>
       <c r="L33">
-        <v>3.988438334178273e-05</v>
+        <v>3.9884383341782728E-5</v>
       </c>
       <c r="M33" t="s">
         <v>106</v>
@@ -3395,7 +3566,7 @@
         <v>121590.3</v>
       </c>
       <c r="Q33">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R33">
         <v>75</v>
@@ -3404,13 +3575,13 @@
         <v>2</v>
       </c>
       <c r="T33">
-        <v>9.610694781152467e-07</v>
+        <v>9.610694781152467E-7</v>
       </c>
       <c r="U33">
-        <v>3.604010542932175e-05</v>
+        <v>3.6040105429321747E-5</v>
       </c>
       <c r="V33">
-        <v>17.11497545445648</v>
+        <v>17.114975454456481</v>
       </c>
       <c r="W33">
         <v>363</v>
@@ -3421,8 +3592,11 @@
       <c r="Y33">
         <v>113</v>
       </c>
+      <c r="Z33">
+        <v>10.93</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3454,10 +3628,10 @@
         <v>19745289</v>
       </c>
       <c r="K34">
-        <v>3.610987917168495e-05</v>
+        <v>3.6109879171684953E-5</v>
       </c>
       <c r="L34">
-        <v>8.564068117716585e-05</v>
+        <v>8.5640681177165848E-5</v>
       </c>
       <c r="M34" t="s">
         <v>107</v>
@@ -3481,25 +3655,28 @@
         <v>170</v>
       </c>
       <c r="T34">
-        <v>8.609648610359666e-06</v>
+        <v>8.6096486103596659E-6</v>
       </c>
       <c r="U34">
-        <v>7.429620300822135e-05</v>
+        <v>7.4296203008221353E-5</v>
       </c>
       <c r="V34">
-        <v>361.9337593011674</v>
+        <v>361.93375930116741</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>8.629411764705882</v>
+        <v>8.6294117647058819</v>
       </c>
       <c r="Y34">
-        <v>4.564705882352941</v>
+        <v>4.5647058823529409</v>
+      </c>
+      <c r="Z34">
+        <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3531,10 +3708,10 @@
         <v>10146788</v>
       </c>
       <c r="K35">
-        <v>2.13860780377002e-05</v>
+        <v>2.1386078037700201E-5</v>
       </c>
       <c r="L35">
-        <v>5.223327815659497e-05</v>
+        <v>5.2233278156594972E-5</v>
       </c>
       <c r="M35" t="s">
         <v>108</v>
@@ -3549,7 +3726,7 @@
         <v>53819.16</v>
       </c>
       <c r="Q35">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="R35">
         <v>473</v>
@@ -3558,25 +3735,28 @@
         <v>12</v>
       </c>
       <c r="T35">
-        <v>1.18264026014932e-06</v>
+        <v>1.1826402601493201E-6</v>
       </c>
       <c r="U35">
-        <v>4.66157369208857e-05</v>
+        <v>4.6615736920885703E-5</v>
       </c>
       <c r="V35">
-        <v>188.5348637920027</v>
+        <v>188.53486379200271</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>39.41666666666666</v>
+        <v>39.416666666666657</v>
       </c>
       <c r="Y35">
         <v>1.833333333333333</v>
       </c>
+      <c r="Z35">
+        <v>13.17</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3608,10 +3788,10 @@
         <v>757952</v>
       </c>
       <c r="K36">
-        <v>1.715148188803513e-05</v>
+        <v>1.715148188803513E-5</v>
       </c>
       <c r="L36">
-        <v>4.221903233977877e-05</v>
+        <v>4.2219032339778767E-5</v>
       </c>
       <c r="M36" t="s">
         <v>109</v>
@@ -3623,7 +3803,7 @@
         <v>8.1</v>
       </c>
       <c r="P36">
-        <v>70698.32000000001</v>
+        <v>70698.320000000007</v>
       </c>
       <c r="Q36">
         <v>19.8</v>
@@ -3638,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>3.95803428185426e-05</v>
+        <v>3.95803428185426E-5</v>
       </c>
       <c r="V36">
-        <v>10.72093367989508</v>
+        <v>10.720933679895079</v>
       </c>
       <c r="W36">
         <v>1293</v>
@@ -3652,8 +3832,11 @@
       <c r="Y36" t="s">
         <v>168</v>
       </c>
+      <c r="Z36">
+        <v>9.51</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3685,10 +3868,10 @@
         <v>11614373</v>
       </c>
       <c r="K37">
-        <v>2.2213855194766e-05</v>
+        <v>2.2213855194766001E-5</v>
       </c>
       <c r="L37">
-        <v>5.768714333524505e-05</v>
+        <v>5.7687143335245052E-5</v>
       </c>
       <c r="M37" t="s">
         <v>110</v>
@@ -3712,25 +3895,28 @@
         <v>19</v>
       </c>
       <c r="T37">
-        <v>1.63590406473083e-06</v>
+        <v>1.63590406473083E-6</v>
       </c>
       <c r="U37">
-        <v>4.692461659359485e-05</v>
+        <v>4.6924616593594847E-5</v>
       </c>
       <c r="V37">
-        <v>259.1014550174253</v>
+        <v>259.10145501742528</v>
       </c>
       <c r="W37">
         <v>848</v>
       </c>
       <c r="X37">
-        <v>28.68421052631579</v>
+        <v>28.684210526315791</v>
       </c>
       <c r="Y37">
-        <v>0.8421052631578947</v>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="Z37">
+        <v>11.71</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3762,10 +3948,10 @@
         <v>3923561</v>
       </c>
       <c r="K38">
-        <v>1.299839609986948e-05</v>
+        <v>1.299839609986948E-5</v>
       </c>
       <c r="L38">
-        <v>4.001467034665703e-05</v>
+        <v>4.0014670346657029E-5</v>
       </c>
       <c r="M38" t="s">
         <v>111</v>
@@ -3780,7 +3966,7 @@
         <v>69898.87</v>
       </c>
       <c r="Q38">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="R38">
         <v>118</v>
@@ -3789,25 +3975,28 @@
         <v>7</v>
       </c>
       <c r="T38">
-        <v>1.784093582335027e-06</v>
+        <v>1.7840935823350269E-6</v>
       </c>
       <c r="U38">
-        <v>3.007472038793331e-05</v>
+        <v>3.0074720387933311E-5</v>
       </c>
       <c r="V38">
-        <v>56.13196608185512</v>
+        <v>56.131966081855118</v>
       </c>
       <c r="W38">
         <v>82</v>
       </c>
       <c r="X38">
-        <v>16.85714285714286</v>
+        <v>16.857142857142861</v>
       </c>
       <c r="Y38">
-        <v>69.71428571428571</v>
+        <v>69.714285714285708</v>
+      </c>
+      <c r="Z38">
+        <v>8.49</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3839,10 +4028,10 @@
         <v>4093465</v>
       </c>
       <c r="K39">
-        <v>2.125338802212795e-05</v>
+        <v>2.1253388022127949E-5</v>
       </c>
       <c r="L39">
-        <v>6.547020678080795e-05</v>
+        <v>6.5470206780807953E-5</v>
       </c>
       <c r="M39" t="s">
         <v>112</v>
@@ -3854,7 +4043,7 @@
         <v>9.6</v>
       </c>
       <c r="P39">
-        <v>98378.53999999999</v>
+        <v>98378.54</v>
       </c>
       <c r="Q39">
         <v>16.2</v>
@@ -3866,25 +4055,28 @@
         <v>5</v>
       </c>
       <c r="T39">
-        <v>1.221459081731491e-06</v>
+        <v>1.2214590817314911E-6</v>
       </c>
       <c r="U39">
-        <v>4.37282351259874e-05</v>
+        <v>4.3728235125987398E-5</v>
       </c>
       <c r="V39">
-        <v>41.60932861983925</v>
+        <v>41.609328619839253</v>
       </c>
       <c r="W39">
         <v>226</v>
       </c>
       <c r="X39">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="Y39">
         <v>323</v>
       </c>
+      <c r="Z39">
+        <v>15.07</v>
+      </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3916,10 +4108,10 @@
         <v>12784227</v>
       </c>
       <c r="K40">
-        <v>2.831614300966339e-05</v>
+        <v>2.8316143009663391E-5</v>
       </c>
       <c r="L40">
-        <v>6.640995971050889e-05</v>
+        <v>6.6409959710508892E-5</v>
       </c>
       <c r="M40" t="s">
         <v>113</v>
@@ -3928,7 +4120,7 @@
         <v>160</v>
       </c>
       <c r="O40">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P40">
         <v>46054.34</v>
@@ -3943,13 +4135,13 @@
         <v>62</v>
       </c>
       <c r="T40">
-        <v>4.849726150826327e-06</v>
+        <v>4.8497261508263269E-6</v>
       </c>
       <c r="U40">
-        <v>6.13255693910942e-05</v>
+        <v>6.1325569391094197E-5</v>
       </c>
       <c r="V40">
-        <v>277.5900599161773</v>
+        <v>277.59005991617732</v>
       </c>
       <c r="W40">
         <v>776</v>
@@ -3958,10 +4150,13 @@
         <v>12.64516129032258</v>
       </c>
       <c r="Y40">
-        <v>3.548387096774194</v>
+        <v>3.5483870967741939</v>
+      </c>
+      <c r="Z40">
+        <v>14.56</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3993,10 +4188,10 @@
         <v>1056426</v>
       </c>
       <c r="K41">
-        <v>3.502374988877593e-05</v>
+        <v>3.5023749888775932E-5</v>
       </c>
       <c r="L41">
-        <v>6.531456060339295e-05</v>
+        <v>6.531456060339295E-5</v>
       </c>
       <c r="M41" t="s">
         <v>114</v>
@@ -4020,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="T41">
-        <v>3.786351339327128e-06</v>
+        <v>3.786351339327128E-6</v>
       </c>
       <c r="U41">
-        <v>6.910091194272008e-05</v>
+        <v>6.9100911942720082E-5</v>
       </c>
       <c r="V41">
-        <v>683.8195599686709</v>
+        <v>683.81955996867089</v>
       </c>
       <c r="W41">
         <v>22</v>
@@ -4037,8 +4232,11 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>17.100000000000001</v>
+      </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4070,10 +4268,10 @@
         <v>4961119</v>
       </c>
       <c r="K42">
-        <v>1.552069200517061e-05</v>
+        <v>1.5520692005170611E-5</v>
       </c>
       <c r="L42">
-        <v>4.857775030189762e-05</v>
+        <v>4.8577750301897617E-5</v>
       </c>
       <c r="M42" t="s">
         <v>115</v>
@@ -4097,10 +4295,10 @@
         <v>5</v>
       </c>
       <c r="T42">
-        <v>1.007837143192897e-06</v>
+        <v>1.007837143192897E-6</v>
       </c>
       <c r="U42">
-        <v>3.12429514389798e-05</v>
+        <v>3.1242951438979797E-5</v>
       </c>
       <c r="V42">
         <v>154.9357614452496</v>
@@ -4112,10 +4310,13 @@
         <v>31</v>
       </c>
       <c r="Y42">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Z42">
+        <v>10.87</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4147,10 +4348,10 @@
         <v>865454</v>
       </c>
       <c r="K43">
-        <v>1.155462913106878e-05</v>
+        <v>1.1554629131068779E-5</v>
       </c>
       <c r="L43">
-        <v>4.159666487184761e-05</v>
+        <v>4.1596664871847607E-5</v>
       </c>
       <c r="M43" t="s">
         <v>116</v>
@@ -4162,10 +4363,10 @@
         <v>8.4</v>
       </c>
       <c r="P43">
-        <v>77115.67999999999</v>
+        <v>77115.679999999993</v>
       </c>
       <c r="Q43">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="R43">
         <v>27</v>
@@ -4177,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>3.119749865388571e-05</v>
+        <v>3.1197498653885707E-5</v>
       </c>
       <c r="V43">
-        <v>11.22280189969148</v>
+        <v>11.222801899691479</v>
       </c>
       <c r="W43">
         <v>16</v>
@@ -4191,8 +4392,11 @@
       <c r="Y43" t="s">
         <v>168</v>
       </c>
+      <c r="Z43">
+        <v>9.76</v>
+      </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4224,10 +4428,10 @@
         <v>6651194</v>
       </c>
       <c r="K44">
-        <v>1.879361810826748e-05</v>
+        <v>1.8793618108267479E-5</v>
       </c>
       <c r="L44">
-        <v>5.02165475852907e-05</v>
+        <v>5.0216547585290698E-5</v>
       </c>
       <c r="M44" t="s">
         <v>117</v>
@@ -4251,25 +4455,28 @@
         <v>15</v>
       </c>
       <c r="T44">
-        <v>2.255234172992097e-06</v>
+        <v>2.255234172992097E-6</v>
       </c>
       <c r="U44">
-        <v>4.194735561765301e-05</v>
+        <v>4.1947355617653011E-5</v>
       </c>
       <c r="V44">
-        <v>157.8197262971817</v>
+        <v>157.81972629718169</v>
       </c>
       <c r="W44">
         <v>488</v>
       </c>
       <c r="X44">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Y44">
-        <v>4.266666666666667</v>
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="Z44">
+        <v>10.57</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4301,10 +4508,10 @@
         <v>27862596</v>
       </c>
       <c r="K45">
-        <v>1.661725992796938e-05</v>
+        <v>1.661725992796938E-5</v>
       </c>
       <c r="L45">
-        <v>4.497068399513097e-05</v>
+        <v>4.4970683995130973E-5</v>
       </c>
       <c r="M45" t="s">
         <v>118</v>
@@ -4316,7 +4523,7 @@
         <v>11.2</v>
       </c>
       <c r="P45">
-        <v>268596.46</v>
+        <v>268596.46000000002</v>
       </c>
       <c r="Q45">
         <v>14.3</v>
@@ -4328,25 +4535,28 @@
         <v>56</v>
       </c>
       <c r="T45">
-        <v>2.009862971849428e-06</v>
+        <v>2.009862971849428E-6</v>
       </c>
       <c r="U45">
-        <v>3.825917728556234e-05</v>
+        <v>3.8259177285562337E-5</v>
       </c>
       <c r="V45">
-        <v>103.7340402773737</v>
+        <v>103.73404027737369</v>
       </c>
       <c r="W45">
         <v>1615</v>
       </c>
       <c r="X45">
-        <v>19.03571428571428</v>
+        <v>19.035714285714281</v>
       </c>
       <c r="Y45">
-        <v>6.785714285714286</v>
+        <v>6.7857142857142856</v>
+      </c>
+      <c r="Z45">
+        <v>12.47</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4378,10 +4588,10 @@
         <v>3051217</v>
       </c>
       <c r="K46">
-        <v>1.015988046736761e-05</v>
+        <v>1.0159880467367609E-5</v>
       </c>
       <c r="L46">
-        <v>5.374904505317059e-05</v>
+        <v>5.3749045053170589E-5</v>
       </c>
       <c r="M46" t="s">
         <v>119</v>
@@ -4396,7 +4606,7 @@
         <v>84896.88</v>
       </c>
       <c r="Q46">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R46">
         <v>73</v>
@@ -4405,25 +4615,28 @@
         <v>9</v>
       </c>
       <c r="T46">
-        <v>2.949642716332532e-06</v>
+        <v>2.9496427163325321E-6</v>
       </c>
       <c r="U46">
-        <v>2.392487981025276e-05</v>
+        <v>2.3924879810252759E-5</v>
       </c>
       <c r="V46">
-        <v>35.94027248115596</v>
+        <v>35.940272481155958</v>
       </c>
       <c r="W46">
         <v>220</v>
       </c>
       <c r="X46">
-        <v>8.111111111111111</v>
+        <v>8.1111111111111107</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
+      <c r="Z46">
+        <v>10.48</v>
+      </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4455,10 +4668,10 @@
         <v>624594</v>
       </c>
       <c r="K47">
-        <v>2.561664056971409e-05</v>
+        <v>2.561664056971409E-5</v>
       </c>
       <c r="L47">
-        <v>5.603640124624956e-05</v>
+        <v>5.6036401246249561E-5</v>
       </c>
       <c r="M47" t="s">
         <v>120</v>
@@ -4470,7 +4683,7 @@
         <v>7.1</v>
       </c>
       <c r="P47">
-        <v>9616.360000000001</v>
+        <v>9616.36</v>
       </c>
       <c r="Q47">
         <v>17</v>
@@ -4482,13 +4695,13 @@
         <v>4</v>
       </c>
       <c r="T47">
-        <v>6.404160142428522e-06</v>
+        <v>6.4041601424285217E-6</v>
       </c>
       <c r="U47">
-        <v>6.404160142428522e-05</v>
+        <v>6.4041601424285217E-5</v>
       </c>
       <c r="V47">
-        <v>64.95118735155505</v>
+        <v>64.951187351555049</v>
       </c>
       <c r="W47">
         <v>191</v>
@@ -4499,8 +4712,11 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>16.02</v>
+      </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4532,10 +4748,10 @@
         <v>8411808</v>
       </c>
       <c r="K48">
-        <v>2.330057937603901e-05</v>
+        <v>2.3300579376039011E-5</v>
       </c>
       <c r="L48">
-        <v>5.492279424352053e-05</v>
+        <v>5.4922794243520528E-5</v>
       </c>
       <c r="M48" t="s">
         <v>121</v>
@@ -4559,25 +4775,28 @@
         <v>38</v>
       </c>
       <c r="T48">
-        <v>4.517459266783074e-06</v>
+        <v>4.5174592667830741E-6</v>
       </c>
       <c r="U48">
-        <v>3.732847920447067e-05</v>
+        <v>3.7328479204470673E-5</v>
       </c>
       <c r="V48">
-        <v>196.6527589875658</v>
+        <v>196.65275898756579</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48">
-        <v>8.263157894736842</v>
+        <v>8.2631578947368425</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
+      <c r="Z48">
+        <v>16.39</v>
+      </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4609,10 +4828,10 @@
         <v>7288000</v>
       </c>
       <c r="K49">
-        <v>1.783754116355653e-05</v>
+        <v>1.7837541163556531E-5</v>
       </c>
       <c r="L49">
-        <v>5.104281009879254e-05</v>
+        <v>5.1042810098792542E-5</v>
       </c>
       <c r="M49" t="s">
         <v>122</v>
@@ -4636,10 +4855,10 @@
         <v>11</v>
       </c>
       <c r="T49">
-        <v>1.509330406147091e-06</v>
+        <v>1.5093304061470909E-6</v>
       </c>
       <c r="U49">
-        <v>4.925905598243688e-05</v>
+        <v>4.9259055982436877E-5</v>
       </c>
       <c r="V49">
         <v>102.2189277531822</v>
@@ -4648,13 +4867,16 @@
         <v>569</v>
       </c>
       <c r="X49">
-        <v>32.63636363636363</v>
+        <v>32.636363636363633</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>15.19</v>
+      </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4686,10 +4908,10 @@
         <v>1831102</v>
       </c>
       <c r="K50">
-        <v>2.457536499878216e-05</v>
+        <v>2.4575364998782159E-5</v>
       </c>
       <c r="L50">
-        <v>5.297356455293042e-05</v>
+        <v>5.2973564552930421E-5</v>
       </c>
       <c r="M50" t="s">
         <v>123</v>
@@ -4716,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>3.932058399805145e-05</v>
+        <v>3.9320583998051452E-5</v>
       </c>
       <c r="V50">
-        <v>75.57156323307761</v>
+        <v>75.571563233077612</v>
       </c>
       <c r="W50">
         <v>380</v>
@@ -4727,8 +4949,11 @@
       <c r="X50" t="s">
         <v>168</v>
       </c>
+      <c r="Z50">
+        <v>9.19</v>
+      </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4760,10 +4985,10 @@
         <v>5778708</v>
       </c>
       <c r="K51">
-        <v>2.076588746134949e-05</v>
+        <v>2.076588746134949E-5</v>
       </c>
       <c r="L51">
-        <v>5.520265083475407e-05</v>
+        <v>5.5202650834754069E-5</v>
       </c>
       <c r="M51" t="s">
         <v>124</v>
@@ -4778,7 +5003,7 @@
         <v>65496.38</v>
       </c>
       <c r="Q51">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="R51">
         <v>246</v>
@@ -4787,13 +5012,13 @@
         <v>6</v>
       </c>
       <c r="T51">
-        <v>1.038294373067475e-06</v>
+        <v>1.038294373067475E-6</v>
       </c>
       <c r="U51">
-        <v>4.257006929576646e-05</v>
+        <v>4.2570069295766459E-5</v>
       </c>
       <c r="V51">
-        <v>88.22942580948749</v>
+        <v>88.229425809487495</v>
       </c>
       <c r="W51">
         <v>64</v>
@@ -4804,8 +5029,11 @@
       <c r="Y51">
         <v>0</v>
       </c>
+      <c r="Z51">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4837,10 +5065,10 @@
         <v>585501</v>
       </c>
       <c r="K52">
-        <v>1.707939012913727e-05</v>
+        <v>1.7079390129137271E-5</v>
       </c>
       <c r="L52">
-        <v>2.220320716787845e-05</v>
+        <v>2.2203207167878451E-5</v>
       </c>
       <c r="M52" t="s">
         <v>125</v>
@@ -4852,10 +5080,10 @@
         <v>7.6</v>
       </c>
       <c r="P52">
-        <v>97813.00999999999</v>
+        <v>97813.01</v>
       </c>
       <c r="Q52">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="R52">
         <v>10</v>
@@ -4867,16 +5095,19 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>1.707939012913727e-05</v>
+        <v>1.7079390129137271E-5</v>
       </c>
       <c r="V52">
-        <v>5.985921504715988</v>
+        <v>5.9859215047159884</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
         <v>168</v>
+      </c>
+      <c r="Z52">
+        <v>9.24</v>
       </c>
     </row>
   </sheetData>

--- a/HCPStateLevelData.xlsx
+++ b/HCPStateLevelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sushanth.kodali/Downloads/Blue-Bird-Bio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54BE322-C209-1D47-BD56-E789FF8BE4C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{438EC056-C8D7-6D49-AA62-7ED1AA0D4C6E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
